--- a/ANOTACIONES_.xlsx
+++ b/ANOTACIONES_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\laugh_clap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B52C7E-6E47-40FA-A996-8A47777ABB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F23A387-BBEA-4770-ABB3-F695116A6B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12075" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12075" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Truco 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10331" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10331" uniqueCount="668">
   <si>
     <t>Tiempo</t>
   </si>
@@ -2056,9 +2056,6 @@
   </si>
   <si>
     <t>Tiempo_s</t>
-  </si>
-  <si>
-    <t>Tiempo_2</t>
   </si>
 </sst>
 </file>
@@ -2499,9 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BD280" sqref="BD280"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8695,9 +8690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN92"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A92"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8719,8 +8712,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>668</v>
+      <c r="A1" s="16" t="s">
+        <v>667</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -13227,9 +13220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN125"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13251,7 +13242,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>667</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -19640,9 +19631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN121"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A120"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19654,7 +19643,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>667</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -23661,9 +23650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AN157"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A157"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -23678,7 +23665,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>667</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -27975,9 +27962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AN310"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A310"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -27986,7 +27971,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>667</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -46790,9 +46775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AN245"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A103"/>
-    </sheetView>
+    <sheetView topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -46803,7 +46786,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>667</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -49654,9 +49637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AN223"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -49670,7 +49651,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>667</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -55263,6 +55244,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ANOTACIONES_.xlsx
+++ b/ANOTACIONES_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\laugh_clap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4F91B2-04E8-4F45-8A79-89F3930DCC84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B34352B-936B-4755-AD5A-5159C9DC683D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12075" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10331" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10328" uniqueCount="668">
   <si>
     <t>Tiempo</t>
   </si>
@@ -46781,10 +46781,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AN245"/>
+  <dimension ref="A1:AN243"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:B103"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49214,9 +49214,6 @@
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B105" s="18"/>
-      <c r="I105" t="s">
-        <v>367</v>
-      </c>
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B106" s="18"/>
@@ -49631,12 +49628,6 @@
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B243" s="18"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B244" s="18"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B245" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49645,10 +49636,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AN223"/>
+  <dimension ref="A1:AN210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:XFD215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55198,61 +55189,15 @@
     </row>
     <row r="207" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B207" s="18"/>
-      <c r="D207" s="24"/>
     </row>
     <row r="208" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B208" s="18"/>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B209" s="18"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B210" s="18"/>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B211" s="18"/>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B212" s="18"/>
-      <c r="C212" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B213" s="18"/>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B214" s="18"/>
-      <c r="C214" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B215" s="18"/>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B216" s="18"/>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B217" s="18"/>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B218" s="18"/>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B219" s="18"/>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B220" s="18"/>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B221" s="18"/>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B222" s="18"/>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B223" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ANOTACIONES_.xlsx
+++ b/ANOTACIONES_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\laugh_clap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B34352B-936B-4755-AD5A-5159C9DC683D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F986B-7CF5-4A30-BAC2-229F0BCA35EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12075" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12075" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Truco 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10328" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10329" uniqueCount="668">
   <si>
     <t>Tiempo</t>
   </si>
@@ -2492,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD280"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B191"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI173" sqref="AI173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7999,9 +7999,8 @@
       <c r="Z172" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AI172" s="5">
-        <f ca="1">+AI172:AAI191</f>
-        <v>0</v>
+      <c r="AI172" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:39" x14ac:dyDescent="0.35">
@@ -49638,7 +49637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AN210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A203" sqref="A203:XFD215"/>
     </sheetView>
   </sheetViews>

--- a/ANOTACIONES_.xlsx
+++ b/ANOTACIONES_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\laugh_clap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D88421-D670-4CBD-AD46-30C2451331C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652AE9D3-629C-4E2B-8D92-32F2E2EB2F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12075" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10324" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10318" uniqueCount="661">
   <si>
     <t>Tiempo</t>
   </si>
@@ -1147,9 +1147,6 @@
   </si>
   <si>
     <t>S,a,Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>S,P,N</t>
@@ -2500,7 +2497,7 @@
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -8694,7 +8691,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -11208,7 +11205,7 @@
         <v>179</v>
       </c>
       <c r="Y50" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AF50" s="19" t="s">
         <v>154</v>
@@ -13226,7 +13223,7 @@
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -19612,8 +19609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN121"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z82" sqref="Z82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19627,7 +19624,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -19758,13 +19755,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>15</v>
@@ -19776,13 +19773,13 @@
         <v>9</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>95</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>7</v>
@@ -19794,13 +19791,13 @@
         <v>7</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>7</v>
@@ -19812,7 +19809,7 @@
         <v>7</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>9</v>
@@ -19845,7 +19842,7 @@
         <v>9</v>
       </c>
       <c r="AL2" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AN2" s="15" t="s">
         <v>149</v>
@@ -19862,7 +19859,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>95</v>
@@ -19871,7 +19868,7 @@
         <v>7</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="X3" s="15" t="s">
         <v>7</v>
@@ -19897,7 +19894,7 @@
         <v>8.611111111111111E-3</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA4" s="15" t="s">
         <v>6</v>
@@ -19926,19 +19923,19 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="R5" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>481</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>482</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AB5" s="15" t="s">
         <v>6</v>
@@ -19961,7 +19958,7 @@
         <v>113</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>18</v>
@@ -19976,7 +19973,7 @@
         <v>242</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>14</v>
@@ -19988,13 +19985,13 @@
         <v>6</v>
       </c>
       <c r="AD6" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AE6" s="15" t="s">
         <v>244</v>
       </c>
       <c r="AG6" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AH6" s="15" t="s">
         <v>4</v>
@@ -20014,10 +20011,10 @@
         <v>8.6805555555555507E-3</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>487</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>488</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>14</v>
@@ -20037,7 +20034,7 @@
         <v>14</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>1</v>
@@ -20054,7 +20051,7 @@
         <v>14</v>
       </c>
       <c r="AH7" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AI7" s="15" t="s">
         <v>5</v>
@@ -20073,7 +20070,7 @@
         <v>8.7037037037036996E-3</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T8" s="15" t="s">
         <v>149</v>
@@ -20112,7 +20109,7 @@
         <v>19</v>
       </c>
       <c r="AE9" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF9" s="15" t="s">
         <v>224</v>
@@ -20245,7 +20242,7 @@
         <v>6</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AI14" s="15" t="s">
         <v>6</v>
@@ -20321,7 +20318,7 @@
         <v>224</v>
       </c>
       <c r="AL16" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
@@ -20350,7 +20347,7 @@
         <v>18</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>149</v>
@@ -20370,7 +20367,7 @@
         <v>6</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q18" s="15" t="s">
         <v>18</v>
@@ -20417,10 +20414,10 @@
         <v>6</v>
       </c>
       <c r="AD19" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AE19" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
@@ -20440,19 +20437,19 @@
         <v>6</v>
       </c>
       <c r="V20" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="W20" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG20" s="15" t="s">
+      <c r="AN20" s="15" t="s">
         <v>495</v>
-      </c>
-      <c r="AN20" s="15" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
@@ -20499,7 +20496,7 @@
         <v>224</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W21" s="15" t="s">
         <v>114</v>
@@ -20514,13 +20511,13 @@
         <v>103</v>
       </c>
       <c r="AD21" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE21" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="AE21" s="15" t="s">
+      <c r="AG21" s="15" t="s">
         <v>499</v>
-      </c>
-      <c r="AG21" s="15" t="s">
-        <v>500</v>
       </c>
       <c r="AH21" s="15" t="s">
         <v>114</v>
@@ -20576,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="AG22" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
@@ -20655,7 +20652,7 @@
         <v>224</v>
       </c>
       <c r="AG24" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN24" s="15" t="s">
         <v>224</v>
@@ -20681,7 +20678,7 @@
         <v>4</v>
       </c>
       <c r="AN25" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
@@ -20704,7 +20701,7 @@
         <v>4</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W26" s="15" t="s">
         <v>103</v>
@@ -20719,13 +20716,13 @@
         <v>4</v>
       </c>
       <c r="AD26" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE26" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG26" s="15" t="s">
         <v>502</v>
-      </c>
-      <c r="AE26" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="AG26" s="15" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
@@ -20751,7 +20748,7 @@
         <v>224</v>
       </c>
       <c r="AH27" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AK27" s="15" t="s">
         <v>224</v>
@@ -20804,7 +20801,7 @@
         <v>26</v>
       </c>
       <c r="AF29" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
@@ -20824,22 +20821,22 @@
         <v>4</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="AA30" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AE30" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF30" s="15" t="s">
         <v>11</v>
       </c>
       <c r="AK30" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
@@ -20850,7 +20847,7 @@
         <v>9.2361111111110804E-3</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>4</v>
@@ -20859,7 +20856,7 @@
         <v>4</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="X31" s="15" t="s">
         <v>4</v>
@@ -20909,13 +20906,13 @@
         <v>103</v>
       </c>
       <c r="AD32" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AE32" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG32" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AJ32" s="15" t="s">
         <v>4</v>
@@ -20954,19 +20951,19 @@
         <v>6</v>
       </c>
       <c r="AC33" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH33" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AI33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="AK33" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL33" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
@@ -20992,7 +20989,7 @@
         <v>4</v>
       </c>
       <c r="AF34" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AI34" s="15" t="s">
         <v>6</v>
@@ -21069,7 +21066,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M36" s="15" t="s">
         <v>103</v>
@@ -21096,16 +21093,16 @@
         <v>6</v>
       </c>
       <c r="AD36" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AE36" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AJ36" s="15" t="s">
         <v>4</v>
       </c>
       <c r="AK36" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AL36" s="15" t="s">
         <v>6</v>
@@ -21161,10 +21158,10 @@
         <v>6</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG37" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AH37" s="15" t="s">
         <v>4</v>
@@ -21237,7 +21234,7 @@
         <v>9.4212962962962592E-3</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>11</v>
@@ -21270,7 +21267,7 @@
         <v>224</v>
       </c>
       <c r="AG39" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
@@ -21287,7 +21284,7 @@
         <v>4</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L40" s="15" t="s">
         <v>278</v>
@@ -21340,7 +21337,7 @@
         <v>4</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
@@ -21366,7 +21363,7 @@
         <v>6</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Z42" s="15" t="s">
         <v>6</v>
@@ -21413,13 +21410,13 @@
         <v>108</v>
       </c>
       <c r="AG43" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AH43" s="15" t="s">
         <v>97</v>
       </c>
       <c r="AI43" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
@@ -21448,10 +21445,10 @@
         <v>4</v>
       </c>
       <c r="X44" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Z44" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AB44" s="15" t="s">
         <v>6</v>
@@ -21460,7 +21457,7 @@
         <v>296</v>
       </c>
       <c r="AF44" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AJ44" s="15" t="s">
         <v>6</v>
@@ -21483,7 +21480,7 @@
         <v>6</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M45" s="15" t="s">
         <v>10</v>
@@ -21557,10 +21554,10 @@
         <v>4</v>
       </c>
       <c r="AG46" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AH46" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI46" s="15" t="s">
         <v>6</v>
@@ -21615,7 +21612,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L48" s="15" t="s">
         <v>6</v>
@@ -21648,16 +21645,16 @@
         <v>4</v>
       </c>
       <c r="AD48" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AE48" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG48" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AH48" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AJ48" s="15" t="s">
         <v>114</v>
@@ -21674,7 +21671,7 @@
         <v>4</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N49" s="15" t="s">
         <v>6</v>
@@ -21717,7 +21714,7 @@
         <v>149</v>
       </c>
       <c r="AB50" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AD50" s="15" t="s">
         <v>6</v>
@@ -21758,7 +21755,7 @@
         <v>225</v>
       </c>
       <c r="AG51" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN51" s="15" t="s">
         <v>11</v>
@@ -21836,7 +21833,7 @@
         <v>4</v>
       </c>
       <c r="AF55" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
@@ -21847,7 +21844,7 @@
         <v>9.8148148148147693E-3</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>4</v>
@@ -21880,13 +21877,13 @@
         <v>4</v>
       </c>
       <c r="AD56" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AE56" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG56" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AI56" s="15" t="s">
         <v>4</v>
@@ -21918,7 +21915,7 @@
         <v>4</v>
       </c>
       <c r="AE57" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AH57" s="15" t="s">
         <v>4</v>
@@ -21950,7 +21947,7 @@
         <v>4</v>
       </c>
       <c r="AG58" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
@@ -21964,7 +21961,7 @@
         <v>11</v>
       </c>
       <c r="V59" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Y59" s="15" t="s">
         <v>149</v>
@@ -21990,10 +21987,10 @@
         <v>6</v>
       </c>
       <c r="R60" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V60" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AA60" s="15" t="s">
         <v>4</v>
@@ -22002,7 +21999,7 @@
         <v>103</v>
       </c>
       <c r="AG60" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
@@ -22025,7 +22022,7 @@
         <v>2</v>
       </c>
       <c r="V61" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X61" s="15" t="s">
         <v>6</v>
@@ -22060,10 +22057,10 @@
         <v>19</v>
       </c>
       <c r="AE62" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF62" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AJ62" s="15" t="s">
         <v>11</v>
@@ -22101,7 +22098,7 @@
         <v>108</v>
       </c>
       <c r="V63" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AB63" s="15" t="s">
         <v>4</v>
@@ -22192,7 +22189,7 @@
         <v>6</v>
       </c>
       <c r="AN65" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
@@ -22221,19 +22218,19 @@
         <v>6</v>
       </c>
       <c r="U66" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z66" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA66" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE66" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="Z66" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA66" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE66" s="15" t="s">
-        <v>526</v>
-      </c>
       <c r="AG66" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AH66" s="15" t="s">
         <v>10</v>
@@ -22242,7 +22239,7 @@
         <v>6</v>
       </c>
       <c r="AK66" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AL66" s="15" t="s">
         <v>116</v>
@@ -22274,7 +22271,7 @@
         <v>2</v>
       </c>
       <c r="V67" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Z67" s="15" t="s">
         <v>114</v>
@@ -22332,7 +22329,7 @@
         <v>1.0115740740740699E-2</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O69" s="15" t="s">
         <v>6</v>
@@ -22419,7 +22416,7 @@
         <v>97</v>
       </c>
       <c r="AG72" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.35">
@@ -22578,7 +22575,7 @@
         <v>1.0370370370370301E-2</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AI80" s="17"/>
     </row>
@@ -22596,10 +22593,10 @@
         <v>18</v>
       </c>
       <c r="Z81" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AI81" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.35">
@@ -22615,9 +22612,6 @@
       <c r="U82" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Z82" s="15" t="s">
-        <v>365</v>
-      </c>
       <c r="AB82" s="23" t="s">
         <v>8</v>
       </c>
@@ -22625,7 +22619,7 @@
         <v>3</v>
       </c>
       <c r="AF82" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.35">
@@ -22723,7 +22717,7 @@
         <v>6</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N86" s="15" t="s">
         <v>220</v>
@@ -22732,7 +22726,7 @@
         <v>6</v>
       </c>
       <c r="Q86" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="R86" s="15" t="s">
         <v>297</v>
@@ -22753,16 +22747,16 @@
         <v>224</v>
       </c>
       <c r="X86" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Y86" s="15" t="s">
         <v>10</v>
       </c>
       <c r="Z86" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AB86" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AC86" s="15" t="s">
         <v>10</v>
@@ -22794,16 +22788,16 @@
         <v>231</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N87" s="15" t="s">
         <v>113</v>
       </c>
       <c r="O87" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AB87" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AD87" s="15" t="s">
         <v>6</v>
@@ -22817,7 +22811,7 @@
         <v>1.05555555555555E-2</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O88" s="15" t="s">
         <v>6</v>
@@ -22827,7 +22821,7 @@
         <v>224</v>
       </c>
       <c r="Z88" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AI88" s="15" t="s">
         <v>11</v>
@@ -22870,16 +22864,16 @@
         <v>4</v>
       </c>
       <c r="O90" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AA90" s="15" t="s">
         <v>14</v>
       </c>
       <c r="AE90" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG90" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AH90" s="15" t="s">
         <v>4</v>
@@ -22926,7 +22920,7 @@
       </c>
       <c r="AB92" s="17"/>
       <c r="AG92" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AH92" s="15" t="s">
         <v>4</v>
@@ -22949,7 +22943,7 @@
         <v>297</v>
       </c>
       <c r="P93" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S93" s="15" t="s">
         <v>225</v>
@@ -23054,7 +23048,7 @@
         <v>4</v>
       </c>
       <c r="AG99" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.35">
@@ -23094,7 +23088,7 @@
         <v>3</v>
       </c>
       <c r="S101" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AC101" s="15" t="s">
         <v>257</v>
@@ -23122,7 +23116,7 @@
         <v>6</v>
       </c>
       <c r="M103" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Y103" s="15" t="s">
         <v>3</v>
@@ -23139,7 +23133,7 @@
         <v>224</v>
       </c>
       <c r="AF104" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.35">
@@ -23156,7 +23150,7 @@
         <v>224</v>
       </c>
       <c r="AG105" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.35">
@@ -23167,7 +23161,7 @@
         <v>1.09722222222221E-2</v>
       </c>
       <c r="AE106" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.35">
@@ -23204,7 +23198,7 @@
         <v>3</v>
       </c>
       <c r="AG108" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AH108" s="15" t="s">
         <v>3</v>
@@ -23295,7 +23289,7 @@
         <v>296</v>
       </c>
       <c r="T110" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z110" s="15" t="s">
         <v>244</v>
@@ -23307,7 +23301,7 @@
         <v>92</v>
       </c>
       <c r="AG110" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AI110" s="15" t="s">
         <v>116</v>
@@ -23356,7 +23350,7 @@
         <v>4</v>
       </c>
       <c r="AE112" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.35">
@@ -23441,19 +23435,19 @@
         <v>297</v>
       </c>
       <c r="D117" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="E117" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="E117" s="15" t="s">
+      <c r="G117" s="15" t="s">
         <v>535</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>536</v>
       </c>
       <c r="H117" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J117" s="15" t="s">
         <v>95</v>
@@ -23465,19 +23459,19 @@
         <v>215</v>
       </c>
       <c r="N117" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O117" s="15" t="s">
         <v>7</v>
       </c>
       <c r="P117" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q117" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="R117" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S117" s="15" t="s">
         <v>7</v>
@@ -23489,7 +23483,7 @@
         <v>7</v>
       </c>
       <c r="V117" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W117" s="15" t="s">
         <v>7</v>
@@ -23498,13 +23492,13 @@
         <v>215</v>
       </c>
       <c r="Y117" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z117" s="15" t="s">
         <v>101</v>
       </c>
       <c r="AA117" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD117" s="15" t="s">
         <v>6</v>
@@ -23516,10 +23510,10 @@
         <v>215</v>
       </c>
       <c r="AH117" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AI117" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AJ117" s="15" t="s">
         <v>7</v>
@@ -23528,7 +23522,7 @@
         <v>7</v>
       </c>
       <c r="AL117" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AN117" s="15" t="s">
         <v>220</v>
@@ -23554,7 +23548,7 @@
         <v>95</v>
       </c>
       <c r="T118" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z118" s="15" t="s">
         <v>7</v>
@@ -23566,10 +23560,10 @@
         <v>7</v>
       </c>
       <c r="AD118" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AE118" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM118" s="15" t="s">
         <v>164</v>
@@ -23586,13 +23580,13 @@
         <v>7</v>
       </c>
       <c r="AE119" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF119" s="15" t="s">
         <v>113</v>
       </c>
       <c r="AG119" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AJ119" s="15" t="s">
         <v>5</v>
@@ -23645,7 +23639,7 @@
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -23874,7 +23868,7 @@
         <v>149</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF3" t="s">
         <v>78</v>
@@ -23924,7 +23918,7 @@
         <v>8</v>
       </c>
       <c r="AM4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AN4" t="s">
         <v>14</v>
@@ -24325,7 +24319,7 @@
         <v>3</v>
       </c>
       <c r="Z23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC23" t="s">
         <v>177</v>
@@ -24513,7 +24507,7 @@
         <v>149</v>
       </c>
       <c r="V27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AD27" t="s">
         <v>14</v>
@@ -24780,7 +24774,7 @@
         <v>10</v>
       </c>
       <c r="X39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AC39" t="s">
         <v>6</v>
@@ -24884,7 +24878,7 @@
         <v>18</v>
       </c>
       <c r="S43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AC43" t="s">
         <v>1</v>
@@ -25157,7 +25151,7 @@
         <v>1.25231481481482E-2</v>
       </c>
       <c r="I55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J55" t="s">
         <v>6</v>
@@ -25228,7 +25222,7 @@
         <v>10</v>
       </c>
       <c r="Z56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG56" t="s">
         <v>154</v>
@@ -25367,13 +25361,13 @@
         <v>28</v>
       </c>
       <c r="T58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA58" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AB58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC58" t="s">
         <v>14</v>
@@ -25385,7 +25379,7 @@
         <v>163</v>
       </c>
       <c r="AK58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL58" t="s">
         <v>28</v>
@@ -25495,7 +25489,7 @@
         <v>14</v>
       </c>
       <c r="S62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T62" t="s">
         <v>38</v>
@@ -25521,7 +25515,7 @@
         <v>44</v>
       </c>
       <c r="L63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O63" t="s">
         <v>6</v>
@@ -25839,7 +25833,7 @@
         <v>6</v>
       </c>
       <c r="AI75" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AJ75" t="s">
         <v>6</v>
@@ -25848,7 +25842,7 @@
         <v>9</v>
       </c>
       <c r="AM75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AN75" t="s">
         <v>6</v>
@@ -25877,7 +25871,7 @@
         <v>38</v>
       </c>
       <c r="Q76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S76" t="s">
         <v>9</v>
@@ -25889,7 +25883,7 @@
         <v>164</v>
       </c>
       <c r="AA76" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AB76" t="s">
         <v>350</v>
@@ -25933,7 +25927,7 @@
         <v>28</v>
       </c>
       <c r="N77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O77" t="s">
         <v>350</v>
@@ -25965,7 +25959,7 @@
         <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I78" t="s">
         <v>8</v>
@@ -26236,7 +26230,7 @@
         <v>28</v>
       </c>
       <c r="L92" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M92" s="5" t="s">
         <v>6</v>
@@ -26333,7 +26327,7 @@
         <v>1.3425925925926001E-2</v>
       </c>
       <c r="C94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -26351,7 +26345,7 @@
         <v>149</v>
       </c>
       <c r="Z94" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC94" t="s">
         <v>4</v>
@@ -26377,7 +26371,7 @@
         <v>10</v>
       </c>
       <c r="L95" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M95" s="5" t="s">
         <v>11</v>
@@ -26485,7 +26479,7 @@
         <v>149</v>
       </c>
       <c r="Z101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AB101" t="s">
         <v>149</v>
@@ -26597,7 +26591,7 @@
         <v>355</v>
       </c>
       <c r="V106" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="W106" t="s">
         <v>78</v>
@@ -26688,7 +26682,7 @@
         <v>1.3750000000000101E-2</v>
       </c>
       <c r="D108" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E108" t="s">
         <v>289</v>
@@ -26697,7 +26691,7 @@
         <v>27</v>
       </c>
       <c r="T108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA108" s="5" t="s">
         <v>14</v>
@@ -26738,7 +26732,7 @@
         <v>1</v>
       </c>
       <c r="AM109" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
@@ -27416,7 +27410,7 @@
         <v>6</v>
       </c>
       <c r="N142" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O142" t="s">
         <v>10</v>
@@ -27536,7 +27530,7 @@
         <v>11</v>
       </c>
       <c r="J148" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K148" t="s">
         <v>3</v>
@@ -27551,7 +27545,7 @@
         <v>6</v>
       </c>
       <c r="P148" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T148" t="s">
         <v>11</v>
@@ -27751,7 +27745,7 @@
         <v>204</v>
       </c>
       <c r="AG152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ152" t="s">
         <v>154</v>
@@ -27795,7 +27789,7 @@
         <v>28</v>
       </c>
       <c r="AK153" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AL153" t="s">
         <v>266</v>
@@ -27833,7 +27827,7 @@
         <v>44</v>
       </c>
       <c r="AL154" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AN154" t="s">
         <v>26</v>
@@ -27856,7 +27850,7 @@
         <v>6</v>
       </c>
       <c r="J155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L155" t="s">
         <v>58</v>
@@ -27865,7 +27859,7 @@
         <v>8</v>
       </c>
       <c r="AC155" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE155" t="s">
         <v>8</v>
@@ -27894,7 +27888,7 @@
         <v>13</v>
       </c>
       <c r="J156" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U156" t="s">
         <v>149</v>
@@ -27941,8 +27935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AN310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J132" sqref="J132"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="K220" sqref="K220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27953,7 +27947,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -28137,7 +28131,7 @@
       </c>
       <c r="Z2" s="15"/>
       <c r="AA2" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB2" s="15" t="s">
         <v>8</v>
@@ -28299,7 +28293,7 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
@@ -28425,7 +28419,7 @@
       <c r="AE7" s="17"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15" t="s">
@@ -28464,7 +28458,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -28562,7 +28556,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -28602,7 +28596,7 @@
         <v>18</v>
       </c>
       <c r="AJ10" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AK10" s="15"/>
       <c r="AL10" s="15"/>
@@ -28714,7 +28708,7 @@
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
@@ -28774,7 +28768,7 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
@@ -28842,7 +28836,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>114</v>
@@ -28857,9 +28851,7 @@
       <c r="M14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>365</v>
-      </c>
+      <c r="N14" s="15"/>
       <c r="O14" s="15" t="s">
         <v>10</v>
       </c>
@@ -28894,7 +28886,7 @@
         <v>6</v>
       </c>
       <c r="AF14" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG14" s="15" t="s">
         <v>6</v>
@@ -28986,7 +28978,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -29049,18 +29041,18 @@
         <v>4</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W17" s="15" t="s">
         <v>14</v>
@@ -29070,7 +29062,7 @@
       </c>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AA17" s="15"/>
       <c r="AB17" s="15"/>
@@ -29118,7 +29110,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
@@ -29304,7 +29296,7 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
@@ -29322,10 +29314,10 @@
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG21" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AH21" s="15" t="s">
         <v>6</v>
@@ -29354,7 +29346,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>4</v>
@@ -29464,7 +29456,7 @@
       <c r="AJ23" s="15"/>
       <c r="AK23" s="15"/>
       <c r="AL23" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -29492,7 +29484,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>14</v>
@@ -29510,7 +29502,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="W24" s="15" t="s">
         <v>4</v>
@@ -29579,13 +29571,13 @@
         <v>4</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
@@ -29608,13 +29600,13 @@
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AK25" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AL25" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
@@ -29658,7 +29650,7 @@
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
@@ -29669,7 +29661,7 @@
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
       <c r="AI26" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AJ26" s="15"/>
       <c r="AK26" s="15"/>
@@ -29723,7 +29715,7 @@
       </c>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
@@ -29776,7 +29768,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q28" s="15" t="s">
         <v>4</v>
@@ -29785,7 +29777,7 @@
         <v>4</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
@@ -29912,7 +29904,7 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
@@ -30048,10 +30040,10 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>555</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>6</v>
@@ -30094,7 +30086,7 @@
       <c r="AF33" s="15"/>
       <c r="AG33" s="15"/>
       <c r="AH33" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI33" s="15"/>
       <c r="AJ33" s="15"/>
@@ -30200,7 +30192,7 @@
       <c r="Z35" s="17"/>
       <c r="AA35" s="15"/>
       <c r="AB35" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
@@ -30279,7 +30271,7 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>11</v>
@@ -30510,7 +30502,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>91</v>
@@ -30523,7 +30515,7 @@
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L41" s="15" t="s">
         <v>114</v>
@@ -30545,7 +30537,7 @@
         <v>6</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T41" s="15" t="s">
         <v>224</v>
@@ -30554,13 +30546,13 @@
         <v>10</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W41" s="15" t="s">
         <v>10</v>
       </c>
       <c r="X41" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
@@ -30582,12 +30574,10 @@
         <v>6</v>
       </c>
       <c r="AJ41" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AK41" s="15"/>
-      <c r="AL41" s="15" t="s">
-        <v>365</v>
-      </c>
+      <c r="AL41" s="15"/>
       <c r="AM41" s="15"/>
       <c r="AN41" s="15" t="s">
         <v>6</v>
@@ -30617,7 +30607,7 @@
       </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>11</v>
@@ -30640,7 +30630,7 @@
         <v>18</v>
       </c>
       <c r="Z42" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA42" s="15" t="s">
         <v>14</v>
@@ -30691,17 +30681,17 @@
         <v>4</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T43" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U43" s="15"/>
       <c r="V43" s="15" t="s">
         <v>4</v>
       </c>
       <c r="W43" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X43" s="15"/>
       <c r="Y43" s="15"/>
@@ -30718,7 +30708,7 @@
         <v>4</v>
       </c>
       <c r="AJ43" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AK43" s="15"/>
       <c r="AL43" s="15"/>
@@ -30802,7 +30792,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
@@ -30813,7 +30803,7 @@
         <v>4</v>
       </c>
       <c r="Q45" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R45" s="15" t="s">
         <v>4</v>
@@ -30922,7 +30912,7 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -31005,7 +30995,7 @@
         <v>18</v>
       </c>
       <c r="AC48" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AD48" s="15"/>
       <c r="AE48" s="15"/>
@@ -31031,7 +31021,7 @@
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>224</v>
@@ -31164,10 +31154,10 @@
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC51" s="15" t="s">
         <v>558</v>
-      </c>
-      <c r="AC51" s="15" t="s">
-        <v>559</v>
       </c>
       <c r="AD51" s="15"/>
       <c r="AE51" s="15"/>
@@ -31272,7 +31262,7 @@
       <c r="X53" s="15"/>
       <c r="Y53" s="15"/>
       <c r="Z53" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA53" s="15"/>
       <c r="AB53" s="15"/>
@@ -31613,7 +31603,7 @@
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
       <c r="O60" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
@@ -31732,7 +31722,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -31768,7 +31758,7 @@
       <c r="X62" s="15"/>
       <c r="Y62" s="15"/>
       <c r="Z62" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AA62" s="15" t="s">
         <v>6</v>
@@ -31786,7 +31776,7 @@
         <v>296</v>
       </c>
       <c r="AH62" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AI62" s="15"/>
       <c r="AJ62" s="15"/>
@@ -31877,7 +31867,7 @@
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
       <c r="M64" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
@@ -31989,7 +31979,7 @@
       <c r="Q66" s="15"/>
       <c r="R66" s="15"/>
       <c r="S66" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T66" s="15"/>
       <c r="U66" s="15"/>
@@ -32037,7 +32027,7 @@
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
       <c r="S67" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="T67" s="15"/>
       <c r="U67" s="15"/>
@@ -32093,7 +32083,7 @@
         <v>149</v>
       </c>
       <c r="S68" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T68" s="15"/>
       <c r="U68" s="15"/>
@@ -32305,7 +32295,7 @@
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
       <c r="AC72" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AD72" s="15"/>
       <c r="AE72" s="15"/>
@@ -32333,7 +32323,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -32344,7 +32334,7 @@
       </c>
       <c r="K73" s="15"/>
       <c r="L73" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M73" s="15"/>
       <c r="N73" s="15" t="s">
@@ -32614,7 +32604,7 @@
         <v>3</v>
       </c>
       <c r="AB77" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AC77" s="15" t="s">
         <v>6</v>
@@ -32871,14 +32861,14 @@
       </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J82" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K82" s="15"/>
       <c r="L82" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M82" s="15" t="s">
         <v>224</v>
@@ -32892,10 +32882,10 @@
         <v>245</v>
       </c>
       <c r="R82" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="S82" s="15" t="s">
         <v>566</v>
-      </c>
-      <c r="S82" s="15" t="s">
-        <v>567</v>
       </c>
       <c r="T82" s="15" t="s">
         <v>224</v>
@@ -32904,7 +32894,7 @@
         <v>224</v>
       </c>
       <c r="V82" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="W82" s="15"/>
       <c r="X82" s="15" t="s">
@@ -32922,10 +32912,10 @@
         <v>97</v>
       </c>
       <c r="AD82" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AE82" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF82" s="15"/>
       <c r="AG82" s="15"/>
@@ -32990,7 +32980,7 @@
       </c>
       <c r="S83" s="15"/>
       <c r="T83" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U83" s="15" t="s">
         <v>7</v>
@@ -33066,7 +33056,7 @@
       <c r="R84" s="15"/>
       <c r="S84" s="15"/>
       <c r="T84" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U84" s="15"/>
       <c r="V84" s="15"/>
@@ -33282,7 +33272,7 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K88" s="15"/>
       <c r="L88" s="15" t="s">
@@ -33430,7 +33420,7 @@
       <c r="AD90" s="15"/>
       <c r="AE90" s="15"/>
       <c r="AF90" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG90" s="15" t="s">
         <v>6</v>
@@ -33491,7 +33481,7 @@
       <c r="AC91" s="15"/>
       <c r="AD91" s="15"/>
       <c r="AE91" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF91" s="15"/>
       <c r="AG91" s="15"/>
@@ -33592,10 +33582,10 @@
       </c>
       <c r="Q93" s="15"/>
       <c r="R93" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S93" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T93" s="15" t="s">
         <v>149</v>
@@ -33642,7 +33632,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
       <c r="L94" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
@@ -33841,10 +33831,10 @@
         <v>10</v>
       </c>
       <c r="Y97" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Z97" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA97" s="15" t="s">
         <v>93</v>
@@ -34153,7 +34143,7 @@
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
@@ -34161,7 +34151,7 @@
         <v>10</v>
       </c>
       <c r="I103" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J103" s="15" t="s">
         <v>10</v>
@@ -34250,7 +34240,7 @@
       <c r="R104" s="15"/>
       <c r="S104" s="15"/>
       <c r="T104" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="U104" s="15"/>
       <c r="V104" s="15" t="s">
@@ -34294,7 +34284,7 @@
         <v>6</v>
       </c>
       <c r="AN104" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.35">
@@ -34330,7 +34320,7 @@
       <c r="X105" s="15"/>
       <c r="Y105" s="15"/>
       <c r="Z105" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA105" s="15" t="s">
         <v>113</v>
@@ -34395,7 +34385,7 @@
         <v>296</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="X106" s="15"/>
       <c r="Y106" s="15"/>
@@ -34485,10 +34475,10 @@
         <v>18</v>
       </c>
       <c r="AE107" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF107" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG107" s="15"/>
       <c r="AH107" s="15"/>
@@ -34498,7 +34488,7 @@
       </c>
       <c r="AK107" s="15"/>
       <c r="AL107" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AM107" s="15"/>
       <c r="AN107" s="15"/>
@@ -34577,7 +34567,7 @@
       <c r="Q109" s="15"/>
       <c r="R109" s="15"/>
       <c r="S109" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="T109" s="15"/>
       <c r="U109" s="15" t="s">
@@ -34594,13 +34584,13 @@
       <c r="AD109" s="15"/>
       <c r="AE109" s="15"/>
       <c r="AF109" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG109" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AH109" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AI109" s="15"/>
       <c r="AJ109" s="15"/>
@@ -34656,7 +34646,7 @@
         <v>18</v>
       </c>
       <c r="AJ110" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AK110" s="15"/>
       <c r="AL110" s="15"/>
@@ -34703,7 +34693,7 @@
       <c r="AA111" s="15"/>
       <c r="AB111" s="15"/>
       <c r="AC111" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AD111" s="15"/>
       <c r="AE111" s="15"/>
@@ -34806,7 +34796,7 @@
       <c r="AD113" s="15"/>
       <c r="AE113" s="15"/>
       <c r="AF113" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG113" s="15"/>
       <c r="AH113" s="15"/>
@@ -34836,7 +34826,7 @@
         <v>19</v>
       </c>
       <c r="L114" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
@@ -34857,7 +34847,7 @@
       <c r="AC114" s="15"/>
       <c r="AD114" s="15"/>
       <c r="AE114" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF114" s="15"/>
       <c r="AG114" s="15"/>
@@ -34955,7 +34945,7 @@
         <v>220</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>9</v>
@@ -34980,7 +34970,7 @@
         <v>7</v>
       </c>
       <c r="R116" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S116" s="15" t="s">
         <v>223</v>
@@ -34998,7 +34988,7 @@
         <v>7</v>
       </c>
       <c r="X116" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Y116" s="15" t="s">
         <v>7</v>
@@ -35026,13 +35016,13 @@
         <v>7</v>
       </c>
       <c r="AJ116" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AK116" s="15" t="s">
         <v>28</v>
       </c>
       <c r="AL116" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AM116" s="15" t="s">
         <v>7</v>
@@ -35065,7 +35055,7 @@
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
       <c r="O117" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P117" s="15"/>
       <c r="Q117" s="15"/>
@@ -35084,14 +35074,14 @@
         <v>14</v>
       </c>
       <c r="Z117" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA117" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AB117" s="15"/>
       <c r="AC117" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AD117" s="15"/>
       <c r="AE117" s="15"/>
@@ -35099,7 +35089,7 @@
       <c r="AG117" s="15"/>
       <c r="AH117" s="15"/>
       <c r="AI117" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AJ117" s="15"/>
       <c r="AK117" s="15"/>
@@ -35210,7 +35200,7 @@
         <v>224</v>
       </c>
       <c r="AF119" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG119" s="15"/>
       <c r="AH119" s="15"/>
@@ -35231,7 +35221,7 @@
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
@@ -35452,7 +35442,7 @@
       <c r="R124" s="15"/>
       <c r="S124" s="15"/>
       <c r="T124" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U124" s="15"/>
       <c r="V124" s="15"/>
@@ -35465,7 +35455,7 @@
         <v>5</v>
       </c>
       <c r="AC124" s="15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AD124" s="15"/>
       <c r="AE124" s="15"/>
@@ -35518,7 +35508,7 @@
         <v>149</v>
       </c>
       <c r="X125" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Y125" s="15"/>
       <c r="Z125" s="15"/>
@@ -35760,7 +35750,7 @@
       <c r="R130" s="15"/>
       <c r="S130" s="15"/>
       <c r="T130" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U130" s="15"/>
       <c r="V130" s="15"/>
@@ -35806,7 +35796,7 @@
       <c r="P131" s="15"/>
       <c r="Q131" s="15"/>
       <c r="R131" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S131" s="15"/>
       <c r="T131" s="15"/>
@@ -35853,7 +35843,7 @@
       <c r="G132" s="15"/>
       <c r="H132" s="15"/>
       <c r="I132" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J132" s="15"/>
       <c r="K132" s="15"/>
@@ -35957,10 +35947,10 @@
       <c r="AG133" s="15"/>
       <c r="AH133" s="15"/>
       <c r="AI133" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AJ133" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AK133" s="15"/>
       <c r="AL133" s="15"/>
@@ -36012,10 +36002,10 @@
         <v>6</v>
       </c>
       <c r="R134" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S134" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T134" s="15"/>
       <c r="U134" s="15"/>
@@ -36070,7 +36060,7 @@
       <c r="J135" s="15"/>
       <c r="K135" s="15"/>
       <c r="L135" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M135" s="15"/>
       <c r="N135" s="15"/>
@@ -36204,7 +36194,7 @@
       <c r="R137" s="15"/>
       <c r="S137" s="15"/>
       <c r="T137" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U137" s="15"/>
       <c r="V137" s="15"/>
@@ -36504,7 +36494,7 @@
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
       <c r="F143" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G143" s="15" t="s">
         <v>10</v>
@@ -36554,7 +36544,7 @@
         <v>10</v>
       </c>
       <c r="X143" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Y143" s="15" t="s">
         <v>224</v>
@@ -36675,7 +36665,7 @@
       <c r="I145" s="15"/>
       <c r="J145" s="15"/>
       <c r="K145" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L145" s="15"/>
       <c r="M145" s="15" t="s">
@@ -36712,7 +36702,7 @@
       <c r="Z145" s="15"/>
       <c r="AA145" s="15"/>
       <c r="AB145" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AC145" s="15"/>
       <c r="AD145" s="15"/>
@@ -36984,10 +36974,10 @@
         <v>224</v>
       </c>
       <c r="T150" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U150" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V150" s="15" t="s">
         <v>224</v>
@@ -37004,10 +36994,10 @@
       <c r="AD150" s="15"/>
       <c r="AE150" s="15"/>
       <c r="AF150" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG150" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AH150" s="15" t="s">
         <v>224</v>
@@ -37046,12 +37036,12 @@
         <v>224</v>
       </c>
       <c r="L151" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M151" s="15"/>
       <c r="N151" s="15"/>
       <c r="O151" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P151" s="15"/>
       <c r="Q151" s="15"/>
@@ -37106,7 +37096,7 @@
       <c r="J152" s="15"/>
       <c r="K152" s="15"/>
       <c r="L152" s="15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M152" s="15"/>
       <c r="N152" s="15"/>
@@ -37164,7 +37154,7 @@
       <c r="J153" s="15"/>
       <c r="K153" s="15"/>
       <c r="L153" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M153" s="15"/>
       <c r="N153" s="15"/>
@@ -37225,7 +37215,7 @@
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
       <c r="G154" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H154" s="15" t="s">
         <v>11</v>
@@ -37234,7 +37224,7 @@
       <c r="J154" s="15"/>
       <c r="K154" s="15"/>
       <c r="L154" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M154" s="15"/>
       <c r="N154" s="15"/>
@@ -37242,7 +37232,7 @@
       <c r="P154" s="15"/>
       <c r="Q154" s="15"/>
       <c r="R154" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S154" s="15"/>
       <c r="T154" s="15"/>
@@ -37368,7 +37358,7 @@
         <v>6</v>
       </c>
       <c r="R156" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="S156" s="15"/>
       <c r="T156" s="15"/>
@@ -37440,10 +37430,10 @@
       <c r="T157" s="15"/>
       <c r="U157" s="15"/>
       <c r="V157" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W157" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="X157" s="15"/>
       <c r="Y157" s="15"/>
@@ -37452,7 +37442,7 @@
       </c>
       <c r="AA157" s="15"/>
       <c r="AB157" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AC157" s="15"/>
       <c r="AD157" s="15"/>
@@ -37466,7 +37456,7 @@
       <c r="AL157" s="15"/>
       <c r="AM157" s="15"/>
       <c r="AN157" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.35">
@@ -37532,7 +37522,7 @@
       <c r="J159" s="15"/>
       <c r="K159" s="15"/>
       <c r="L159" s="15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M159" s="15"/>
       <c r="N159" s="15"/>
@@ -37582,7 +37572,7 @@
       <c r="J160" s="15"/>
       <c r="K160" s="15"/>
       <c r="L160" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M160" s="15"/>
       <c r="N160" s="15"/>
@@ -37689,7 +37679,7 @@
       </c>
       <c r="P162" s="15"/>
       <c r="Q162" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R162" s="15"/>
       <c r="S162" s="15"/>
@@ -37826,7 +37816,7 @@
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G165" s="15"/>
       <c r="H165" s="15"/>
@@ -37884,10 +37874,10 @@
         <v>224</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F166" s="15" t="s">
         <v>220</v>
@@ -37906,14 +37896,14 @@
       </c>
       <c r="K166" s="15"/>
       <c r="L166" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M166" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N166" s="15"/>
       <c r="O166" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P166" s="15" t="s">
         <v>6</v>
@@ -37941,7 +37931,7 @@
         <v>101</v>
       </c>
       <c r="AA166" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB166" s="15"/>
       <c r="AC166" s="15"/>
@@ -37972,7 +37962,7 @@
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
@@ -38006,20 +37996,20 @@
       <c r="T167" s="15"/>
       <c r="U167" s="15"/>
       <c r="V167" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="W167" s="15"/>
       <c r="X167" s="15" t="s">
         <v>7</v>
       </c>
       <c r="Y167" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z167" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA167" s="15" t="s">
         <v>480</v>
-      </c>
-      <c r="Z167" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA167" s="15" t="s">
-        <v>481</v>
       </c>
       <c r="AB167" s="15"/>
       <c r="AC167" s="15"/>
@@ -38065,14 +38055,14 @@
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
       <c r="K168" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="L168" s="15" t="s">
         <v>593</v>
-      </c>
-      <c r="L168" s="15" t="s">
-        <v>594</v>
       </c>
       <c r="M168" s="15"/>
       <c r="N168" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O168" s="15"/>
       <c r="P168" s="15"/>
@@ -38080,7 +38070,7 @@
         <v>164</v>
       </c>
       <c r="R168" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S168" s="15"/>
       <c r="T168" s="15"/>
@@ -38090,10 +38080,10 @@
       <c r="V168" s="15"/>
       <c r="W168" s="15"/>
       <c r="X168" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y168" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Z168" s="15"/>
       <c r="AA168" s="15"/>
@@ -38101,7 +38091,7 @@
         <v>5</v>
       </c>
       <c r="AC168" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AD168" s="15"/>
       <c r="AE168" s="15"/>
@@ -38141,7 +38131,7 @@
       <c r="M169" s="15"/>
       <c r="N169" s="15"/>
       <c r="O169" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P169" s="15"/>
       <c r="Q169" s="15"/>
@@ -38261,7 +38251,7 @@
       <c r="AA171" s="15"/>
       <c r="AB171" s="15"/>
       <c r="AC171" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AD171" s="15"/>
       <c r="AE171" s="15"/>
@@ -38297,7 +38287,7 @@
       <c r="O172" s="15"/>
       <c r="P172" s="15"/>
       <c r="Q172" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R172" s="15"/>
       <c r="S172" s="15"/>
@@ -38574,7 +38564,7 @@
       <c r="R177" s="15"/>
       <c r="S177" s="15"/>
       <c r="T177" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U177" s="15"/>
       <c r="V177" s="15"/>
@@ -38612,7 +38602,7 @@
       <c r="H178" s="15"/>
       <c r="I178" s="15"/>
       <c r="J178" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K178" s="15"/>
       <c r="L178" s="15"/>
@@ -38697,7 +38687,7 @@
       <c r="AI179" s="15"/>
       <c r="AJ179" s="15"/>
       <c r="AK179" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL179" s="15"/>
       <c r="AM179" s="15"/>
@@ -38762,7 +38752,7 @@
       </c>
       <c r="C181" s="15"/>
       <c r="D181" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E181" s="15" t="s">
         <v>113</v>
@@ -38792,7 +38782,7 @@
       <c r="T181" s="15"/>
       <c r="U181" s="15"/>
       <c r="V181" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W181" s="15"/>
       <c r="X181" s="15" t="s">
@@ -38800,10 +38790,10 @@
       </c>
       <c r="Y181" s="15"/>
       <c r="Z181" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA181" s="15" t="s">
         <v>599</v>
-      </c>
-      <c r="AA181" s="15" t="s">
-        <v>600</v>
       </c>
       <c r="AB181" s="15"/>
       <c r="AC181" s="15"/>
@@ -38839,7 +38829,7 @@
       </c>
       <c r="J182" s="15"/>
       <c r="K182" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L182" s="15"/>
       <c r="M182" s="15"/>
@@ -38868,10 +38858,10 @@
       <c r="Z182" s="15"/>
       <c r="AA182" s="15"/>
       <c r="AB182" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AC182" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AD182" s="15"/>
       <c r="AE182" s="15"/>
@@ -38881,9 +38871,7 @@
       <c r="AI182" s="15"/>
       <c r="AJ182" s="15"/>
       <c r="AK182" s="15"/>
-      <c r="AL182" s="15" t="s">
-        <v>365</v>
-      </c>
+      <c r="AL182" s="15"/>
       <c r="AM182" s="15"/>
       <c r="AN182" s="15"/>
     </row>
@@ -38898,11 +38886,11 @@
         <v>224</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E183" s="15"/>
       <c r="F183" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G183" s="15" t="s">
         <v>6</v>
@@ -38930,7 +38918,7 @@
         <v>296</v>
       </c>
       <c r="T183" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U183" s="15" t="s">
         <v>6</v>
@@ -38964,7 +38952,7 @@
         <v>93</v>
       </c>
       <c r="AJ183" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AK183" s="15"/>
       <c r="AL183" s="15" t="s">
@@ -38974,7 +38962,7 @@
         <v>6</v>
       </c>
       <c r="AN183" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.35">
@@ -39013,7 +39001,7 @@
       <c r="W184" s="15"/>
       <c r="X184" s="15"/>
       <c r="Y184" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Z184" s="15"/>
       <c r="AA184" s="15"/>
@@ -39233,7 +39221,7 @@
         <v>10</v>
       </c>
       <c r="Y188" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Z188" s="15"/>
       <c r="AA188" s="15"/>
@@ -39270,7 +39258,7 @@
       <c r="H189" s="15"/>
       <c r="I189" s="15"/>
       <c r="J189" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K189" s="15"/>
       <c r="L189" s="15"/>
@@ -39317,7 +39305,7 @@
         <v>1.9236111111110898E-2</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -39343,10 +39331,10 @@
       <c r="W190" s="15"/>
       <c r="X190" s="15"/>
       <c r="Y190" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Z190" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AA190" s="15"/>
       <c r="AB190" s="15"/>
@@ -39471,7 +39459,7 @@
         <v>4</v>
       </c>
       <c r="S192" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="T192" s="15" t="s">
         <v>304</v>
@@ -39544,7 +39532,7 @@
       <c r="X193" s="15"/>
       <c r="Y193" s="15"/>
       <c r="Z193" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA193" s="15" t="s">
         <v>113</v>
@@ -39631,7 +39619,7 @@
         <v>1.93518518518517E-2</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>112</v>
@@ -39722,7 +39710,7 @@
       <c r="X196" s="15"/>
       <c r="Y196" s="15"/>
       <c r="Z196" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA196" s="15" t="s">
         <v>93</v>
@@ -39881,7 +39869,7 @@
       <c r="I199" s="15"/>
       <c r="J199" s="15"/>
       <c r="K199" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L199" s="15"/>
       <c r="M199" s="15"/>
@@ -39952,7 +39940,7 @@
       <c r="T200" s="15"/>
       <c r="U200" s="15"/>
       <c r="V200" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W200" s="15"/>
       <c r="X200" s="15"/>
@@ -40011,7 +39999,7 @@
         <v>7</v>
       </c>
       <c r="AA201" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AB201" s="15"/>
       <c r="AC201" s="15"/>
@@ -40045,22 +40033,22 @@
         <v>220</v>
       </c>
       <c r="G202" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H202" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I202" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J202" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K202" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L202" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M202" s="15" t="s">
         <v>215</v>
@@ -40069,7 +40057,7 @@
         <v>3</v>
       </c>
       <c r="O202" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P202" s="15" t="s">
         <v>7</v>
@@ -40078,7 +40066,7 @@
         <v>220</v>
       </c>
       <c r="R202" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S202" s="15" t="s">
         <v>7</v>
@@ -40090,23 +40078,23 @@
         <v>105</v>
       </c>
       <c r="V202" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="W202" s="15" t="s">
         <v>7</v>
       </c>
       <c r="X202" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Y202" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Z202" s="15"/>
       <c r="AA202" s="15"/>
       <c r="AB202" s="15"/>
       <c r="AC202" s="15"/>
       <c r="AD202" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AE202" s="15" t="s">
         <v>7</v>
@@ -40124,7 +40112,7 @@
         <v>7</v>
       </c>
       <c r="AN202" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="203" spans="1:40" x14ac:dyDescent="0.35">
@@ -40135,14 +40123,14 @@
         <v>1.9537037037036801E-2</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F203" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G203" s="15"/>
       <c r="H203" s="15"/>
@@ -40166,10 +40154,10 @@
       <c r="Z203" s="15"/>
       <c r="AA203" s="15"/>
       <c r="AB203" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="AC203" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="AC203" s="15" t="s">
-        <v>611</v>
       </c>
       <c r="AD203" s="15"/>
       <c r="AE203" s="15"/>
@@ -40177,7 +40165,7 @@
         <v>9</v>
       </c>
       <c r="AG203" s="15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AH203" s="15" t="s">
         <v>7</v>
@@ -40188,7 +40176,7 @@
         <v>224</v>
       </c>
       <c r="AL203" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM203" s="15"/>
       <c r="AN203" s="15"/>
@@ -40201,17 +40189,17 @@
         <v>1.9560185185185E-2</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
       <c r="G204" s="15"/>
       <c r="H204" s="15"/>
       <c r="I204" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J204" s="15"/>
       <c r="K204" s="15" t="s">
@@ -40234,7 +40222,7 @@
       <c r="Z204" s="15"/>
       <c r="AA204" s="15"/>
       <c r="AB204" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AC204" s="15" t="s">
         <v>149</v>
@@ -40336,7 +40324,7 @@
       <c r="T206" s="15"/>
       <c r="U206" s="15"/>
       <c r="V206" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W206" s="15"/>
       <c r="X206" s="15"/>
@@ -40565,7 +40553,7 @@
       <c r="AG210" s="15"/>
       <c r="AH210" s="15"/>
       <c r="AI210" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AJ210" s="15" t="s">
         <v>149</v>
@@ -40705,9 +40693,7 @@
       <c r="Y213" s="15"/>
       <c r="Z213" s="15"/>
       <c r="AA213" s="15"/>
-      <c r="AB213" s="15" t="s">
-        <v>365</v>
-      </c>
+      <c r="AB213" s="15"/>
       <c r="AC213" s="15"/>
       <c r="AD213" s="15"/>
       <c r="AE213" s="15"/>
@@ -40783,7 +40769,7 @@
       <c r="I215" s="15"/>
       <c r="J215" s="15"/>
       <c r="K215" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L215" s="15"/>
       <c r="M215" s="15"/>
@@ -40836,7 +40822,7 @@
         <v>6</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E216" s="15" t="s">
         <v>11</v>
@@ -40849,7 +40835,7 @@
         <v>6</v>
       </c>
       <c r="I216" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J216" s="15" t="s">
         <v>11</v>
@@ -40859,11 +40845,11 @@
         <v>217</v>
       </c>
       <c r="M216" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N216" s="15"/>
       <c r="O216" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P216" s="15" t="s">
         <v>10</v>
@@ -40898,7 +40884,7 @@
         <v>9</v>
       </c>
       <c r="AF216" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG216" s="15"/>
       <c r="AH216" s="15"/>
@@ -40919,10 +40905,10 @@
         <v>1.9861111111110899E-2</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E217" s="15" t="s">
         <v>242</v>
@@ -40953,7 +40939,7 @@
         <v>6</v>
       </c>
       <c r="O217" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P217" s="15" t="s">
         <v>230</v>
@@ -40962,7 +40948,7 @@
         <v>220</v>
       </c>
       <c r="R217" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S217" s="15"/>
       <c r="T217" s="15"/>
@@ -40977,7 +40963,7 @@
       </c>
       <c r="X217" s="15"/>
       <c r="Y217" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Z217" s="15" t="s">
         <v>101</v>
@@ -41002,16 +40988,16 @@
         <v>116</v>
       </c>
       <c r="AJ217" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AK217" s="15" t="s">
         <v>220</v>
       </c>
       <c r="AL217" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM217" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AN217" s="15" t="s">
         <v>6</v>
@@ -41028,7 +41014,7 @@
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G218" s="15"/>
       <c r="H218" s="15"/>
@@ -41045,22 +41031,22 @@
         <v>223</v>
       </c>
       <c r="S218" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T218" s="15"/>
       <c r="U218" s="15"/>
       <c r="V218" s="15"/>
       <c r="W218" s="15"/>
       <c r="X218" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y218" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Z218" s="15"/>
       <c r="AA218" s="15"/>
       <c r="AB218" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AC218" s="15" t="s">
         <v>102</v>
@@ -41093,7 +41079,7 @@
         <v>1.99074074074072E-2</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D219" s="15" t="s">
         <v>102</v>
@@ -41112,7 +41098,7 @@
       <c r="P219" s="15"/>
       <c r="Q219" s="15"/>
       <c r="R219" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S219" s="15"/>
       <c r="T219" s="15" t="s">
@@ -41141,10 +41127,10 @@
         <v>9</v>
       </c>
       <c r="AI219" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="AJ219" s="15" t="s">
         <v>620</v>
-      </c>
-      <c r="AJ219" s="15" t="s">
-        <v>621</v>
       </c>
       <c r="AK219" s="15"/>
       <c r="AL219" s="15"/>
@@ -41169,7 +41155,7 @@
         <v>149</v>
       </c>
       <c r="K220" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L220" s="15"/>
       <c r="M220" s="15"/>
@@ -41179,7 +41165,7 @@
       <c r="Q220" s="15"/>
       <c r="R220" s="15"/>
       <c r="S220" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T220" s="15"/>
       <c r="U220" s="15" t="s">
@@ -41485,7 +41471,7 @@
         <v>26</v>
       </c>
       <c r="U225" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V225" s="15" t="s">
         <v>10</v>
@@ -41502,9 +41488,7 @@
       <c r="AB225" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AC225" s="15" t="s">
-        <v>365</v>
-      </c>
+      <c r="AC225" s="15"/>
       <c r="AD225" s="15"/>
       <c r="AE225" s="15"/>
       <c r="AF225" s="15" t="s">
@@ -41617,13 +41601,13 @@
       <c r="U227" s="15"/>
       <c r="V227" s="15"/>
       <c r="W227" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="X227" s="15"/>
       <c r="Y227" s="15"/>
       <c r="Z227" s="15"/>
       <c r="AA227" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AB227" s="15"/>
       <c r="AC227" s="15"/>
@@ -41659,7 +41643,7 @@
       <c r="K228" s="15"/>
       <c r="L228" s="15"/>
       <c r="M228" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N228" s="15"/>
       <c r="O228" s="15"/>
@@ -41724,7 +41708,7 @@
         <v>224</v>
       </c>
       <c r="T229" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U229" s="15" t="s">
         <v>108</v>
@@ -41767,7 +41751,7 @@
       <c r="K230" s="15"/>
       <c r="L230" s="15"/>
       <c r="M230" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N230" s="15"/>
       <c r="O230" s="15"/>
@@ -41784,7 +41768,7 @@
       <c r="Z230" s="15"/>
       <c r="AA230" s="15"/>
       <c r="AB230" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC230" s="15"/>
       <c r="AD230" s="15"/>
@@ -41922,7 +41906,7 @@
       </c>
       <c r="S233" s="15"/>
       <c r="T233" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U233" s="15"/>
       <c r="V233" s="15"/>
@@ -41938,10 +41922,10 @@
       <c r="AD233" s="15"/>
       <c r="AE233" s="15"/>
       <c r="AF233" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG233" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AH233" s="15"/>
       <c r="AI233" s="15"/>
@@ -41983,7 +41967,7 @@
       </c>
       <c r="R234" s="15"/>
       <c r="S234" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T234" s="15"/>
       <c r="U234" s="15" t="s">
@@ -42029,16 +42013,16 @@
         <v>6</v>
       </c>
       <c r="E235" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F235" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G235" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H235" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I235" s="15"/>
       <c r="J235" s="15" t="s">
@@ -42074,7 +42058,7 @@
       <c r="Z235" s="15"/>
       <c r="AA235" s="15"/>
       <c r="AB235" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AC235" s="15"/>
       <c r="AD235" s="15"/>
@@ -42113,7 +42097,7 @@
       <c r="G236" s="15"/>
       <c r="H236" s="15"/>
       <c r="I236" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J236" s="15" t="s">
         <v>7</v>
@@ -42122,47 +42106,47 @@
         <v>164</v>
       </c>
       <c r="L236" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="M236" s="15" t="s">
         <v>627</v>
-      </c>
-      <c r="M236" s="15" t="s">
-        <v>628</v>
       </c>
       <c r="N236" s="15"/>
       <c r="O236" s="15"/>
       <c r="P236" s="15"/>
       <c r="Q236" s="15"/>
       <c r="R236" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S236" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T236" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="U236" s="15" t="s">
         <v>7</v>
       </c>
       <c r="V236" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W236" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="X236" s="15" t="s">
         <v>103</v>
       </c>
       <c r="Y236" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Z236" s="15" t="s">
         <v>220</v>
       </c>
       <c r="AA236" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AB236" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AC236" s="15" t="s">
         <v>4</v>
@@ -42173,13 +42157,13 @@
       <c r="AG236" s="15"/>
       <c r="AH236" s="15"/>
       <c r="AI236" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AJ236" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AK236" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AL236" s="15" t="s">
         <v>7</v>
@@ -42220,7 +42204,7 @@
       <c r="R237" s="15"/>
       <c r="S237" s="15"/>
       <c r="T237" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="U237" s="15"/>
       <c r="V237" s="15"/>
@@ -42230,7 +42214,7 @@
       <c r="Z237" s="15"/>
       <c r="AA237" s="15"/>
       <c r="AB237" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AC237" s="15" t="s">
         <v>14</v>
@@ -42273,7 +42257,7 @@
         <v>4</v>
       </c>
       <c r="O238" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P238" s="15" t="s">
         <v>14</v>
@@ -42284,7 +42268,7 @@
       <c r="R238" s="15"/>
       <c r="S238" s="15"/>
       <c r="T238" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U238" s="15"/>
       <c r="V238" s="15"/>
@@ -42317,14 +42301,14 @@
         <v>2.0370370370370101E-2</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="15" t="s">
         <v>115</v>
       </c>
       <c r="F239" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G239" s="15" t="s">
         <v>4</v>
@@ -42345,7 +42329,7 @@
         <v>4</v>
       </c>
       <c r="Q239" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R239" s="15" t="s">
         <v>4</v>
@@ -42365,7 +42349,7 @@
         <v>149</v>
       </c>
       <c r="AC239" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AD239" s="15"/>
       <c r="AE239" s="15"/>
@@ -42465,7 +42449,7 @@
       </c>
       <c r="P241" s="15"/>
       <c r="Q241" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R241" s="15"/>
       <c r="S241" s="15"/>
@@ -42595,7 +42579,7 @@
       <c r="AA243" s="15"/>
       <c r="AB243" s="15"/>
       <c r="AC243" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AD243" s="15"/>
       <c r="AE243" s="15"/>
@@ -42631,7 +42615,7 @@
         <v>10</v>
       </c>
       <c r="E244" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F244" s="15"/>
       <c r="G244" s="15"/>
@@ -42642,7 +42626,7 @@
         <v>108</v>
       </c>
       <c r="L244" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M244" s="15"/>
       <c r="N244" s="15"/>
@@ -42845,7 +42829,7 @@
       <c r="AA247" s="15"/>
       <c r="AB247" s="15"/>
       <c r="AC247" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AD247" s="15"/>
       <c r="AE247" s="15"/>
@@ -42966,7 +42950,7 @@
       </c>
       <c r="C250" s="15"/>
       <c r="D250" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E250" s="15" t="s">
         <v>10</v>
@@ -42986,29 +42970,29 @@
         <v>108</v>
       </c>
       <c r="L250" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M250" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N250" s="15"/>
       <c r="O250" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="P250" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q250" s="15" t="s">
         <v>491</v>
-      </c>
-      <c r="P250" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q250" s="15" t="s">
-        <v>492</v>
       </c>
       <c r="R250" s="15"/>
       <c r="S250" s="15"/>
       <c r="T250" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U250" s="15"/>
       <c r="V250" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="W250" s="15"/>
       <c r="X250" s="15" t="s">
@@ -43059,7 +43043,7 @@
         <v>7</v>
       </c>
       <c r="I251" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J251" s="15"/>
       <c r="K251" s="15"/>
@@ -43072,10 +43056,10 @@
       </c>
       <c r="Q251" s="15"/>
       <c r="R251" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S251" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T251" s="15"/>
       <c r="U251" s="15"/>
@@ -43085,16 +43069,16 @@
       </c>
       <c r="X251" s="15"/>
       <c r="Y251" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Z251" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AA251" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AB251" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AC251" s="15"/>
       <c r="AD251" s="15"/>
@@ -43133,11 +43117,11 @@
       <c r="I252" s="15"/>
       <c r="J252" s="15"/>
       <c r="K252" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L252" s="15"/>
       <c r="M252" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N252" s="15"/>
       <c r="O252" s="15"/>
@@ -43146,11 +43130,11 @@
       <c r="R252" s="15"/>
       <c r="S252" s="15"/>
       <c r="T252" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U252" s="15"/>
       <c r="V252" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W252" s="15" t="s">
         <v>114</v>
@@ -43171,7 +43155,7 @@
       <c r="AG252" s="15"/>
       <c r="AH252" s="15"/>
       <c r="AI252" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AJ252" s="15"/>
       <c r="AK252" s="15"/>
@@ -43261,14 +43245,14 @@
       <c r="Q254" s="15"/>
       <c r="R254" s="15"/>
       <c r="S254" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T254" s="15"/>
       <c r="U254" s="15" t="s">
         <v>10</v>
       </c>
       <c r="V254" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W254" s="15"/>
       <c r="X254" s="15"/>
@@ -43313,7 +43297,7 @@
       <c r="K255" s="15"/>
       <c r="L255" s="15"/>
       <c r="M255" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N255" s="15"/>
       <c r="O255" s="15"/>
@@ -43365,7 +43349,7 @@
         <v>2.0763888888888599E-2</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
@@ -43399,7 +43383,7 @@
       <c r="AA256" s="15"/>
       <c r="AB256" s="15"/>
       <c r="AC256" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AD256" s="15"/>
       <c r="AE256" s="15"/>
@@ -43408,7 +43392,7 @@
       <c r="AH256" s="15"/>
       <c r="AI256" s="15"/>
       <c r="AJ256" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AK256" s="15"/>
       <c r="AL256" s="15"/>
@@ -43432,10 +43416,10 @@
       <c r="H257" s="15"/>
       <c r="I257" s="15"/>
       <c r="J257" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K257" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L257" s="15" t="s">
         <v>224</v>
@@ -43456,7 +43440,7 @@
       <c r="V257" s="15"/>
       <c r="W257" s="15"/>
       <c r="X257" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Y257" s="15"/>
       <c r="Z257" s="15"/>
@@ -43666,7 +43650,7 @@
         <v>10</v>
       </c>
       <c r="R261" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="S261" s="15"/>
       <c r="T261" s="15" t="s">
@@ -43720,7 +43704,7 @@
         <v>10</v>
       </c>
       <c r="H262" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I262" s="15"/>
       <c r="J262" s="15" t="s">
@@ -43730,7 +43714,7 @@
         <v>26</v>
       </c>
       <c r="L262" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M262" s="15" t="s">
         <v>297</v>
@@ -43748,7 +43732,7 @@
         <v>6</v>
       </c>
       <c r="R262" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S262" s="15" t="s">
         <v>108</v>
@@ -43776,7 +43760,7 @@
         <v>11</v>
       </c>
       <c r="AB262" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AC262" s="15" t="s">
         <v>114</v>
@@ -43789,7 +43773,7 @@
         <v>224</v>
       </c>
       <c r="AG262" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AH262" s="15" t="s">
         <v>296</v>
@@ -43833,7 +43817,7 @@
       <c r="K263" s="15"/>
       <c r="L263" s="15"/>
       <c r="M263" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N263" s="15"/>
       <c r="O263" s="15"/>
@@ -43842,7 +43826,7 @@
         <v>4</v>
       </c>
       <c r="R263" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S263" s="15" t="s">
         <v>215</v>
@@ -43882,7 +43866,7 @@
         <v>7</v>
       </c>
       <c r="AL263" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AM263" s="15"/>
       <c r="AN263" s="15" t="s">
@@ -43898,7 +43882,7 @@
       </c>
       <c r="C264" s="15"/>
       <c r="D264" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E264" s="15"/>
       <c r="F264" s="15"/>
@@ -43928,10 +43912,10 @@
       </c>
       <c r="Y264" s="15"/>
       <c r="Z264" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AA264" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AB264" s="15"/>
       <c r="AC264" s="15"/>
@@ -43957,11 +43941,11 @@
         <v>2.0972222222222E-2</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D265" s="15"/>
       <c r="E265" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F265" s="15"/>
       <c r="G265" s="15"/>
@@ -43969,7 +43953,7 @@
       <c r="I265" s="15"/>
       <c r="J265" s="15"/>
       <c r="K265" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L265" s="15" t="s">
         <v>102</v>
@@ -43981,7 +43965,7 @@
       <c r="Q265" s="15"/>
       <c r="R265" s="15"/>
       <c r="S265" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="T265" s="15"/>
       <c r="U265" s="15" t="s">
@@ -44142,7 +44126,7 @@
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
       <c r="F268" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G268" s="15" t="s">
         <v>4</v>
@@ -44218,7 +44202,7 @@
         <v>114</v>
       </c>
       <c r="J269" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K269" s="15" t="s">
         <v>6</v>
@@ -44233,7 +44217,7 @@
         <v>6</v>
       </c>
       <c r="O269" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P269" s="15" t="s">
         <v>114</v>
@@ -44245,10 +44229,10 @@
         <v>4</v>
       </c>
       <c r="S269" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T269" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="U269" s="15" t="s">
         <v>6</v>
@@ -44324,7 +44308,7 @@
       <c r="T270" s="15"/>
       <c r="U270" s="15"/>
       <c r="V270" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W270" s="15" t="s">
         <v>113</v>
@@ -44360,7 +44344,7 @@
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
       <c r="F271" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G271" s="15"/>
       <c r="H271" s="15"/>
@@ -44473,7 +44457,7 @@
       <c r="G273" s="15"/>
       <c r="H273" s="15"/>
       <c r="I273" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J273" s="15" t="s">
         <v>296</v>
@@ -44519,7 +44503,7 @@
         <v>2.11805555555553E-2</v>
       </c>
       <c r="C274" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D274" s="15" t="s">
         <v>297</v>
@@ -44550,7 +44534,7 @@
         <v>6</v>
       </c>
       <c r="R274" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="S274" s="15"/>
       <c r="T274" s="15"/>
@@ -44614,7 +44598,7 @@
       <c r="X275" s="15"/>
       <c r="Y275" s="15"/>
       <c r="Z275" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AA275" s="15" t="s">
         <v>2</v>
@@ -44809,7 +44793,7 @@
         <v>11</v>
       </c>
       <c r="O279" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P279" s="15"/>
       <c r="Q279" s="15"/>
@@ -44864,7 +44848,7 @@
       <c r="P280" s="15"/>
       <c r="Q280" s="15"/>
       <c r="R280" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S280" s="15"/>
       <c r="T280" s="15" t="s">
@@ -45039,7 +45023,7 @@
         <v>6</v>
       </c>
       <c r="M283" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N283" s="15" t="s">
         <v>6</v>
@@ -45055,7 +45039,7 @@
       </c>
       <c r="R283" s="15"/>
       <c r="S283" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="T283" s="15" t="s">
         <v>115</v>
@@ -45065,7 +45049,7 @@
         <v>224</v>
       </c>
       <c r="W283" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X283" s="15" t="s">
         <v>108</v>
@@ -45130,7 +45114,7 @@
       <c r="P284" s="15"/>
       <c r="Q284" s="15"/>
       <c r="R284" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S284" s="15"/>
       <c r="T284" s="15"/>
@@ -45183,7 +45167,7 @@
       </c>
       <c r="L285" s="15"/>
       <c r="M285" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N285" s="15"/>
       <c r="O285" s="15"/>
@@ -45322,13 +45306,13 @@
         <v>6</v>
       </c>
       <c r="V287" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W287" s="15" t="s">
         <v>6</v>
       </c>
       <c r="X287" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Y287" s="15"/>
       <c r="Z287" s="15" t="s">
@@ -45500,7 +45484,7 @@
       <c r="Z290" s="15"/>
       <c r="AA290" s="15"/>
       <c r="AB290" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AC290" s="15"/>
       <c r="AD290" s="15"/>
@@ -45535,7 +45519,7 @@
         <v>6</v>
       </c>
       <c r="G291" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H291" s="15" t="s">
         <v>6</v>
@@ -45564,7 +45548,7 @@
         <v>10</v>
       </c>
       <c r="R291" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S291" s="15" t="s">
         <v>108</v>
@@ -45584,13 +45568,13 @@
       </c>
       <c r="Y291" s="15"/>
       <c r="Z291" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA291" s="15" t="s">
         <v>113</v>
       </c>
       <c r="AB291" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC291" s="15" t="s">
         <v>6</v>
@@ -45691,7 +45675,7 @@
         <v>6</v>
       </c>
       <c r="G293" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H293" s="15"/>
       <c r="I293" s="15"/>
@@ -45743,7 +45727,7 @@
       <c r="G294" s="15"/>
       <c r="H294" s="15"/>
       <c r="I294" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J294" s="15" t="s">
         <v>10</v>
@@ -45823,7 +45807,7 @@
         <v>18</v>
       </c>
       <c r="AA295" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AB295" s="15"/>
       <c r="AC295" s="15"/>
@@ -45889,7 +45873,7 @@
       <c r="AE296" s="15"/>
       <c r="AF296" s="15"/>
       <c r="AG296" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AH296" s="15"/>
       <c r="AI296" s="15"/>
@@ -45917,7 +45901,7 @@
       <c r="K297" s="15"/>
       <c r="L297" s="15"/>
       <c r="M297" s="15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N297" s="15"/>
       <c r="O297" s="15"/>
@@ -45935,7 +45919,7 @@
         <v>18</v>
       </c>
       <c r="Y297" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Z297" s="15"/>
       <c r="AA297" s="15"/>
@@ -46146,7 +46130,7 @@
       <c r="AD301" s="15"/>
       <c r="AE301" s="15"/>
       <c r="AF301" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG301" s="15"/>
       <c r="AH301" s="15"/>
@@ -46198,7 +46182,7 @@
       <c r="AF302" s="15"/>
       <c r="AG302" s="15"/>
       <c r="AH302" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AI302" s="15"/>
       <c r="AJ302" s="15"/>
@@ -46339,7 +46323,7 @@
         <v>6</v>
       </c>
       <c r="G305" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H305" s="15"/>
       <c r="I305" s="15"/>
@@ -46412,7 +46396,7 @@
       </c>
       <c r="C306" s="15"/>
       <c r="D306" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
@@ -46550,7 +46534,7 @@
       </c>
       <c r="K308" s="15"/>
       <c r="L308" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M308" s="15" t="s">
         <v>7</v>
@@ -46586,7 +46570,7 @@
         <v>7</v>
       </c>
       <c r="X308" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Y308" s="15" t="s">
         <v>7</v>
@@ -46598,13 +46582,13 @@
         <v>7</v>
       </c>
       <c r="AB308" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AC308" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AD308" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AE308" s="15" t="s">
         <v>7</v>
@@ -46651,7 +46635,7 @@
       <c r="I309" s="15"/>
       <c r="J309" s="15"/>
       <c r="K309" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L309" s="15"/>
       <c r="M309" s="15"/>
@@ -46714,7 +46698,7 @@
       <c r="P310" s="15"/>
       <c r="Q310" s="15"/>
       <c r="R310" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S310" s="15" t="s">
         <v>223</v>
@@ -46766,7 +46750,7 @@
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -46968,7 +46952,7 @@
         <v>258</v>
       </c>
       <c r="J3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R3" t="s">
         <v>6</v>
@@ -47165,7 +47149,7 @@
         <v>6</v>
       </c>
       <c r="Z7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA7" t="s">
         <v>78</v>
@@ -47214,10 +47198,10 @@
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AN9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.35">
@@ -47986,7 +47970,7 @@
         <v>2.3310185185185298E-2</v>
       </c>
       <c r="S56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
@@ -48210,7 +48194,7 @@
         <v>3</v>
       </c>
       <c r="AH72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.35">
@@ -48288,7 +48272,7 @@
         <v>6</v>
       </c>
       <c r="O78" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X78" t="s">
         <v>6</v>
@@ -48404,7 +48388,7 @@
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G82" t="s">
         <v>248</v>
@@ -48416,7 +48400,7 @@
         <v>164</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N82" t="s">
         <v>186</v>
@@ -48428,7 +48412,7 @@
         <v>27</v>
       </c>
       <c r="R82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S82" t="s">
         <v>20</v>
@@ -48443,7 +48427,7 @@
         <v>289</v>
       </c>
       <c r="W82" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X82" t="s">
         <v>186</v>
@@ -48455,10 +48439,10 @@
         <v>9</v>
       </c>
       <c r="AB82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AD82" t="s">
         <v>24</v>
@@ -48505,13 +48489,13 @@
         <v>24</v>
       </c>
       <c r="I83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q83" t="s">
         <v>44</v>
       </c>
       <c r="T83" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U83" t="s">
         <v>44</v>
@@ -48535,7 +48519,7 @@
         <v>9</v>
       </c>
       <c r="AK83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.35">
@@ -48578,7 +48562,7 @@
         <v>2.3981481481481701E-2</v>
       </c>
       <c r="C85" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF85" t="s">
         <v>268</v>
@@ -48598,7 +48582,7 @@
         <v>43</v>
       </c>
       <c r="AC86" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.35">
@@ -48615,7 +48599,7 @@
         <v>78</v>
       </c>
       <c r="I87" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K87" t="s">
         <v>26</v>
@@ -48650,10 +48634,10 @@
         <v>78</v>
       </c>
       <c r="I88" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC88" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG88" t="s">
         <v>149</v>
@@ -48670,7 +48654,7 @@
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H89" t="s">
         <v>10</v>
@@ -48765,7 +48749,7 @@
         <v>10</v>
       </c>
       <c r="X90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y90" t="s">
         <v>163</v>
@@ -48833,7 +48817,7 @@
         <v>70</v>
       </c>
       <c r="AF91" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AH91" t="s">
         <v>163</v>
@@ -49624,7 +49608,7 @@
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -49972,7 +49956,7 @@
         <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K13" t="s">
         <v>166</v>
@@ -50045,7 +50029,7 @@
         <v>149</v>
       </c>
       <c r="U15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V15" t="s">
         <v>149</v>
@@ -50079,7 +50063,7 @@
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L17" t="s">
         <v>19</v>
@@ -50404,7 +50388,7 @@
         <v>18</v>
       </c>
       <c r="S37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T37" t="s">
         <v>18</v>
@@ -50693,7 +50677,7 @@
         <v>18</v>
       </c>
       <c r="X48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y48" t="s">
         <v>4</v>
@@ -50745,7 +50729,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -50872,7 +50856,7 @@
         <v>2.5555555555555502E-2</v>
       </c>
       <c r="N52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R52" t="s">
         <v>4</v>
@@ -51456,7 +51440,7 @@
         <v>149</v>
       </c>
       <c r="V80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W80" t="s">
         <v>177</v>
@@ -51493,10 +51477,10 @@
         <v>58</v>
       </c>
       <c r="K82" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L82" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R82" t="s">
         <v>19</v>
@@ -51514,7 +51498,7 @@
         <v>69</v>
       </c>
       <c r="AA82" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AH82" t="s">
         <v>320</v>
@@ -51534,7 +51518,7 @@
         <v>2.6273148148148101E-2</v>
       </c>
       <c r="K83" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q83" t="s">
         <v>3</v>
@@ -51754,7 +51738,7 @@
         <v>2.6458333333333198E-2</v>
       </c>
       <c r="AC91" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AE91" t="s">
         <v>320</v>
@@ -52006,7 +51990,7 @@
         <v>2.6736111111110999E-2</v>
       </c>
       <c r="T103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V103" t="s">
         <v>154</v>
@@ -52119,7 +52103,7 @@
         <v>149</v>
       </c>
       <c r="T107" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U107" t="s">
         <v>10</v>
@@ -52399,7 +52383,7 @@
         <v>40</v>
       </c>
       <c r="O118" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P118" t="s">
         <v>6</v>
@@ -52487,7 +52471,7 @@
         <v>1</v>
       </c>
       <c r="Q120" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R120" t="s">
         <v>4</v>
@@ -52586,10 +52570,10 @@
         <v>166</v>
       </c>
       <c r="S123" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T123" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U123" t="s">
         <v>1</v>
@@ -52824,7 +52808,7 @@
         <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -52980,7 +52964,7 @@
         <v>10</v>
       </c>
       <c r="L137" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q137" t="s">
         <v>163</v>
@@ -53160,7 +53144,7 @@
         <v>2</v>
       </c>
       <c r="K146" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L146" t="s">
         <v>153</v>
@@ -53169,7 +53153,7 @@
         <v>278</v>
       </c>
       <c r="X146" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AM146" t="s">
         <v>10</v>
@@ -53204,10 +53188,10 @@
         <v>19</v>
       </c>
       <c r="L147" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M147" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N147" t="s">
         <v>28</v>
@@ -53216,13 +53200,13 @@
         <v>154</v>
       </c>
       <c r="P147" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q147" t="s">
         <v>44</v>
       </c>
       <c r="R147" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T147" t="s">
         <v>28</v>
@@ -53234,7 +53218,7 @@
         <v>151</v>
       </c>
       <c r="W147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="X147" t="s">
         <v>28</v>
@@ -53252,13 +53236,13 @@
         <v>28</v>
       </c>
       <c r="AE147" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF147" t="s">
         <v>6</v>
       </c>
       <c r="AG147" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AH147" t="s">
         <v>19</v>
@@ -53293,7 +53277,7 @@
         <v>28</v>
       </c>
       <c r="S148" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Z148" t="s">
         <v>9</v>
@@ -53302,10 +53286,10 @@
         <v>118</v>
       </c>
       <c r="AB148" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AC148" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF148" t="s">
         <v>119</v>
@@ -53320,7 +53304,7 @@
         <v>80</v>
       </c>
       <c r="AK148" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN148" t="s">
         <v>119</v>
@@ -53345,7 +53329,7 @@
         <v>2.7824074074073901E-2</v>
       </c>
       <c r="I150" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T150" t="s">
         <v>149</v>
@@ -53391,7 +53375,7 @@
         <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I152" t="s">
         <v>11</v>
@@ -53523,7 +53507,7 @@
         <v>278</v>
       </c>
       <c r="T155" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AJ155" t="s">
         <v>6</v>
@@ -53578,7 +53562,7 @@
         <v>19</v>
       </c>
       <c r="AM157" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.35">
@@ -53690,7 +53674,7 @@
         <v>19</v>
       </c>
       <c r="AB162" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK162" s="5" t="s">
         <v>1</v>
@@ -53707,7 +53691,7 @@
         <v>2.8124999999999799E-2</v>
       </c>
       <c r="D163" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E163" t="s">
         <v>2</v>
@@ -53741,7 +53725,7 @@
         <v>2.8171296296296101E-2</v>
       </c>
       <c r="D165" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E165" t="s">
         <v>30</v>
@@ -53824,7 +53808,7 @@
         <v>60</v>
       </c>
       <c r="D166" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F166" t="s">
         <v>33</v>
@@ -53928,7 +53912,7 @@
         <v>274</v>
       </c>
       <c r="AM167" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:40" x14ac:dyDescent="0.35">
@@ -53942,7 +53926,7 @@
         <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -53981,7 +53965,7 @@
         <v>181</v>
       </c>
       <c r="AM168" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AN168" t="s">
         <v>10</v>
@@ -53995,7 +53979,7 @@
         <v>2.82638888888887E-2</v>
       </c>
       <c r="D169" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -54013,7 +53997,7 @@
         <v>270</v>
       </c>
       <c r="P169" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R169" t="s">
         <v>63</v>
@@ -54078,13 +54062,13 @@
         <v>352</v>
       </c>
       <c r="AH170" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AI170" t="s">
         <v>352</v>
       </c>
       <c r="AN170" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.35">
@@ -54188,7 +54172,7 @@
         <v>2.8379629629629501E-2</v>
       </c>
       <c r="I174" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="V174" t="s">
         <v>69</v>
@@ -54208,7 +54192,7 @@
         <v>2.84027777777776E-2</v>
       </c>
       <c r="D175" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E175" t="s">
         <v>2</v>
@@ -54270,7 +54254,7 @@
         <v>60</v>
       </c>
       <c r="D176" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H176" t="s">
         <v>181</v>
@@ -54451,7 +54435,7 @@
         <v>6</v>
       </c>
       <c r="AF181" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AN181" t="s">
         <v>1</v>
@@ -54584,7 +54568,7 @@
         <v>2.8657407407407201E-2</v>
       </c>
       <c r="D186" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E186" t="s">
         <v>18</v>
@@ -54599,16 +54583,16 @@
         <v>24</v>
       </c>
       <c r="J186" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K186" t="s">
         <v>164</v>
       </c>
       <c r="L186" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M186" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N186" t="s">
         <v>27</v>
@@ -54617,7 +54601,7 @@
         <v>183</v>
       </c>
       <c r="P186" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q186" t="s">
         <v>28</v>
@@ -54641,16 +54625,16 @@
         <v>198</v>
       </c>
       <c r="Z186" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AA186" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AD186" t="s">
         <v>185</v>
       </c>
       <c r="AE186" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF186" t="s">
         <v>270</v>
@@ -54665,7 +54649,7 @@
         <v>272</v>
       </c>
       <c r="AK186" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.35">
@@ -54691,10 +54675,10 @@
         <v>248</v>
       </c>
       <c r="H187" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J187" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K187" t="s">
         <v>166</v>
@@ -54703,7 +54687,7 @@
         <v>248</v>
       </c>
       <c r="R187" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V187" t="s">
         <v>9</v>
@@ -54715,7 +54699,7 @@
         <v>38</v>
       </c>
       <c r="Z187" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB187" t="s">
         <v>350</v>
@@ -54756,7 +54740,7 @@
         <v>266</v>
       </c>
       <c r="K188" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L188" t="s">
         <v>185</v>
@@ -54765,22 +54749,22 @@
         <v>266</v>
       </c>
       <c r="S188" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AB188" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AC188" t="s">
         <v>24</v>
       </c>
       <c r="AF188" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AI188" t="s">
         <v>186</v>
       </c>
       <c r="AN188" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="189" spans="1:40" x14ac:dyDescent="0.35">
@@ -54791,7 +54775,7 @@
         <v>2.8726851851851701E-2</v>
       </c>
       <c r="L189" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S189" t="s">
         <v>20</v>
@@ -54803,7 +54787,7 @@
         <v>268</v>
       </c>
       <c r="AE189" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG189" t="s">
         <v>73</v>
@@ -54823,7 +54807,7 @@
         <v>26</v>
       </c>
       <c r="AB190" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC190" t="s">
         <v>20</v>
@@ -54840,10 +54824,10 @@
         <v>28</v>
       </c>
       <c r="G191" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I191" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O191" t="s">
         <v>6</v>
@@ -54855,10 +54839,10 @@
         <v>39</v>
       </c>
       <c r="AE191" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AH191" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AL191" t="s">
         <v>149</v>
@@ -54878,7 +54862,7 @@
         <v>248</v>
       </c>
       <c r="E192" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O192" t="s">
         <v>28</v>
@@ -54910,7 +54894,7 @@
         <v>266</v>
       </c>
       <c r="I193" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N193" t="s">
         <v>206</v>
@@ -54925,13 +54909,13 @@
         <v>9</v>
       </c>
       <c r="W193" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AD193" t="s">
         <v>248</v>
       </c>
       <c r="AF193" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG193" t="s">
         <v>266</v>
@@ -54954,7 +54938,7 @@
         <v>164</v>
       </c>
       <c r="Z194" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA194" s="5" t="s">
         <v>14</v>
@@ -54968,7 +54952,7 @@
         <v>2.8865740740740501E-2</v>
       </c>
       <c r="K195" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N195" t="s">
         <v>206</v>
@@ -54985,7 +54969,7 @@
         <v>2.88888888888887E-2</v>
       </c>
       <c r="N196" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="V196" t="s">
         <v>44</v>
@@ -54994,7 +54978,7 @@
         <v>8</v>
       </c>
       <c r="AB196" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AI196" t="s">
         <v>33</v>
@@ -55003,10 +54987,10 @@
         <v>118</v>
       </c>
       <c r="AK196" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="AL196" t="s">
         <v>465</v>
-      </c>
-      <c r="AL196" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="197" spans="1:40" x14ac:dyDescent="0.35">
@@ -55017,16 +55001,16 @@
         <v>2.8912037037036799E-2</v>
       </c>
       <c r="L197" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O197" t="s">
         <v>118</v>
       </c>
       <c r="W197" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X197" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Z197" t="s">
         <v>20</v>
@@ -55038,7 +55022,7 @@
         <v>204</v>
       </c>
       <c r="AE197" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AH197" t="s">
         <v>206</v>
@@ -55055,7 +55039,7 @@
         <v>2.8935185185185001E-2</v>
       </c>
       <c r="L198" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O198" t="s">
         <v>6</v>
@@ -55067,7 +55051,7 @@
         <v>26</v>
       </c>
       <c r="W198" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AA198" s="5" t="s">
         <v>164</v>
@@ -55102,7 +55086,7 @@
         <v>20</v>
       </c>
       <c r="AE199" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AN199" t="s">
         <v>4</v>
